--- a/FIASO/FIASO_Ospedali sentinella.xlsx
+++ b/FIASO/FIASO_Ospedali sentinella.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/FIASO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0785F3-5DCD-DF43-9C60-CFFB3A61EEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556968E0-4285-2842-86CD-5DA217EFF088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="640" windowWidth="15020" windowHeight="15500" activeTab="1" xr2:uid="{22C4DE2E-C98A-5A4E-BEE0-1E8E21B520F3}"/>
+    <workbookView xWindow="10540" yWindow="640" windowWidth="15020" windowHeight="15500" xr2:uid="{22C4DE2E-C98A-5A4E-BEE0-1E8E21B520F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Totale ricoveri" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Per Covid</t>
+  </si>
+  <si>
+    <t>#Ospedali</t>
   </si>
 </sst>
 </file>
@@ -442,62 +445,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121A6DDE-E74E-2542-80AB-86B57FB1660E}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44512</v>
       </c>
       <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
         <v>475</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
@@ -519,17 +525,20 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44517</v>
       </c>
       <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
         <v>625</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
@@ -551,315 +560,336 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44524</v>
       </c>
       <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
         <v>697</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
         <v>74.2</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
         <v>62</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44531</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>810</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
         <v>74.7</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44538</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>892</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
         <v>64</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44545</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>961</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>394</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>567</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>471</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>74</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>372</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>490</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>65</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44552</v>
       </c>
       <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
         <v>1301</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>512</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>789</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>582</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>73</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>425</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>719</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>63</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44559</v>
       </c>
       <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
         <v>1478</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>631</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>847</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>650</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>70</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>455</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>828</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>63</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44566</v>
       </c>
       <c r="B10">
+        <v>21</v>
+      </c>
+      <c r="C10">
         <v>1860</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>815</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1045</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>885</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>70.7</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>619</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>975</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>63.4</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>497</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44573</v>
       </c>
       <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
         <v>2183</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3">
-        <f>E10*(1+55%)</f>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3">
+        <f>F10*(1+55%)</f>
         <v>1371.75</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>71</v>
       </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3">
-        <f>H10*(1+45%)</f>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3">
+        <f>I10*(1+45%)</f>
         <v>1413.75</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>65</v>
       </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44580</v>
       </c>
       <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
         <v>2339</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12">
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
         <v>72</v>
       </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
         <v>66</v>
       </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12">
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12">
         <v>767</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1572</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44587</v>
       </c>
-      <c r="B13" s="3">
-        <f>B12*(1+0.4%)</f>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <f>C12*(1+0.4%)</f>
         <v>2348.3560000000002</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
@@ -874,33 +904,33 @@
       <c r="J13" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="1">
-        <f>K12*(1+6.7%)</f>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="1">
+        <f>L12*(1+6.7%)</f>
         <v>818.38900000000001</v>
       </c>
-      <c r="L13" s="3">
-        <f>L12*(1-2.5%)</f>
+      <c r="M13" s="3">
+        <f>M12*(1-2.5%)</f>
         <v>1532.7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44594</v>
       </c>
-      <c r="B14" s="3">
-        <f>B13*(1-3.3%)</f>
+      <c r="C14" s="3">
+        <f>C13*(1-3.3%)</f>
         <v>2270.8602519999999</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
@@ -915,10 +945,13 @@
       <c r="J14" t="s">
         <v>14</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14">
         <v>840</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1431</v>
       </c>
     </row>
@@ -931,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0D06A4-5ED6-214A-A8A7-22E38B602467}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1316,8 +1349,11 @@
       <c r="F12">
         <v>67.8</v>
       </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
       <c r="H12">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="I12">
         <v>60.6</v>
@@ -1336,16 +1372,17 @@
       <c r="B13" s="3">
         <v>220</v>
       </c>
-      <c r="E13" s="3">
-        <f>99*(1+44%)</f>
-        <v>142.56</v>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F13">
         <v>65.7</v>
       </c>
-      <c r="H13" s="3">
-        <f>240*(1+56%)</f>
-        <v>374.40000000000003</v>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I13">
         <v>63.1</v>
@@ -1362,8 +1399,7 @@
         <v>44594</v>
       </c>
       <c r="B14" s="3">
-        <f>B13*(1-1.5%)</f>
-        <v>216.7</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1403,171 +1439,198 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DD56E7-9076-0A46-86C3-F97A3C89644D}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44524</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>16</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44531</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44538</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>19</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44545</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>23</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44552</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44559</v>
       </c>
       <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>66</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44566</v>
       </c>
       <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>123</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44573</v>
       </c>
       <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>120</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44580</v>
       </c>
       <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>153</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44587</v>
       </c>
       <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>125</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5.3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44594</v>
       </c>
       <c r="B12">
-        <f>B11*(1-0.8%)</f>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f>C11*(1-0.8%)</f>
         <v>124</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>7.4</v>
       </c>
     </row>
